--- a/Doc/GUI-Test-Fabrication.xlsx
+++ b/Doc/GUI-Test-Fabrication.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\khann\source\repos\Michael\Doc\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5467AD70-CDBC-4F1A-AD7E-2DA41A7EA374}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1FBFAAC1-2003-492B-BED0-2E2F03DD7C6C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1182,7 +1182,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="18">
+  <fills count="19">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -1285,6 +1285,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="29">
     <border>
@@ -1655,7 +1661,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="97">
+  <cellXfs count="105">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
@@ -1729,6 +1735,18 @@
     <xf numFmtId="0" fontId="8" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="17" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="17" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="18" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="15" fillId="18" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="13" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
@@ -2197,8 +2215,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U55"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
+      <selection activeCell="A42" sqref="A42:XFD42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2244,18 +2262,18 @@
       </c>
     </row>
     <row r="4" spans="1:14" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="A4" s="66" t="s">
+      <c r="A4" s="74" t="s">
         <v>19</v>
       </c>
-      <c r="B4" s="67"/>
-      <c r="D4" s="72" t="s">
+      <c r="B4" s="75"/>
+      <c r="D4" s="80" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="73"/>
-      <c r="F4" s="74" t="s">
+      <c r="E4" s="81"/>
+      <c r="F4" s="82" t="s">
         <v>3</v>
       </c>
-      <c r="G4" s="75"/>
+      <c r="G4" s="83"/>
       <c r="I4" s="11" t="s">
         <v>46</v>
       </c>
@@ -2264,35 +2282,35 @@
       <c r="L4" s="13"/>
     </row>
     <row r="5" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A5" s="68"/>
-      <c r="B5" s="69"/>
-      <c r="I5" s="82" t="s">
+      <c r="A5" s="76"/>
+      <c r="B5" s="77"/>
+      <c r="I5" s="90" t="s">
         <v>4</v>
       </c>
-      <c r="J5" s="83"/>
+      <c r="J5" s="91"/>
       <c r="K5" s="19" t="s">
         <v>11</v>
       </c>
       <c r="L5" s="20"/>
     </row>
     <row r="6" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A6" s="68"/>
-      <c r="B6" s="69"/>
-      <c r="I6" s="82" t="s">
+      <c r="A6" s="76"/>
+      <c r="B6" s="77"/>
+      <c r="I6" s="90" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="84"/>
+      <c r="J6" s="92"/>
       <c r="L6" s="14"/>
     </row>
     <row r="7" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="68"/>
-      <c r="B7" s="69"/>
+      <c r="A7" s="76"/>
+      <c r="B7" s="77"/>
       <c r="I7" s="15"/>
       <c r="L7" s="14"/>
     </row>
     <row r="8" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="68"/>
-      <c r="B8" s="69"/>
+      <c r="A8" s="76"/>
+      <c r="B8" s="77"/>
       <c r="D8" s="21" t="s">
         <v>16</v>
       </c>
@@ -2302,18 +2320,18 @@
       <c r="F8" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="I8" s="80" t="s">
+      <c r="I8" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="J8" s="81"/>
+      <c r="J8" s="89"/>
       <c r="K8" s="52" t="s">
         <v>133</v>
       </c>
       <c r="L8" s="14"/>
     </row>
     <row r="9" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A9" s="68"/>
-      <c r="B9" s="69"/>
+      <c r="A9" s="76"/>
+      <c r="B9" s="77"/>
       <c r="D9" s="4" t="s">
         <v>0</v>
       </c>
@@ -2325,8 +2343,8 @@
       <c r="L9" s="14"/>
     </row>
     <row r="10" spans="1:14" x14ac:dyDescent="0.3">
-      <c r="A10" s="68"/>
-      <c r="B10" s="69"/>
+      <c r="A10" s="76"/>
+      <c r="B10" s="77"/>
       <c r="D10" s="5" t="s">
         <v>0</v>
       </c>
@@ -2334,18 +2352,18 @@
         <v>7</v>
       </c>
       <c r="F10" s="6"/>
-      <c r="I10" s="64" t="s">
+      <c r="I10" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="J10" s="65"/>
+      <c r="J10" s="73"/>
       <c r="K10" s="53" t="s">
         <v>134</v>
       </c>
       <c r="L10" s="14"/>
     </row>
     <row r="11" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="68"/>
-      <c r="B11" s="69"/>
+      <c r="A11" s="76"/>
+      <c r="B11" s="77"/>
       <c r="D11" s="5" t="s">
         <v>0</v>
       </c>
@@ -2359,8 +2377,8 @@
       <c r="L11" s="18"/>
     </row>
     <row r="12" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="68"/>
-      <c r="B12" s="69"/>
+      <c r="A12" s="76"/>
+      <c r="B12" s="77"/>
       <c r="D12" s="7" t="s">
         <v>0</v>
       </c>
@@ -2370,22 +2388,22 @@
       <c r="F12" s="9"/>
     </row>
     <row r="13" spans="1:14" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="68"/>
-      <c r="B13" s="69"/>
+      <c r="A13" s="76"/>
+      <c r="B13" s="77"/>
     </row>
     <row r="14" spans="1:14" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="68"/>
-      <c r="B14" s="69"/>
-      <c r="E14" s="76" t="s">
+      <c r="A14" s="76"/>
+      <c r="B14" s="77"/>
+      <c r="E14" s="84" t="s">
         <v>2</v>
       </c>
-      <c r="F14" s="77"/>
+      <c r="F14" s="85"/>
     </row>
     <row r="15" spans="1:14" ht="20.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="70"/>
-      <c r="B15" s="71"/>
-      <c r="E15" s="78"/>
-      <c r="F15" s="79"/>
+      <c r="A15" s="78"/>
+      <c r="B15" s="79"/>
+      <c r="E15" s="86"/>
+      <c r="F15" s="87"/>
     </row>
     <row r="17" spans="1:12" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="D17" s="30" t="s">
@@ -2398,94 +2416,94 @@
       </c>
     </row>
     <row r="18" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D18" s="85" t="s">
+      <c r="D18" s="93" t="s">
         <v>17</v>
       </c>
-      <c r="E18" s="86"/>
-      <c r="G18" s="91" t="s">
+      <c r="E18" s="94"/>
+      <c r="G18" s="99" t="s">
         <v>18</v>
       </c>
-      <c r="H18" s="92"/>
+      <c r="H18" s="100"/>
     </row>
     <row r="19" spans="1:12" ht="15" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="D19" s="87"/>
-      <c r="E19" s="88"/>
-      <c r="G19" s="93"/>
-      <c r="H19" s="94"/>
+      <c r="D19" s="95"/>
+      <c r="E19" s="96"/>
+      <c r="G19" s="101"/>
+      <c r="H19" s="102"/>
     </row>
     <row r="20" spans="1:12" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="D20" s="89"/>
-      <c r="E20" s="90"/>
-      <c r="G20" s="95"/>
-      <c r="H20" s="96"/>
+      <c r="D20" s="97"/>
+      <c r="E20" s="98"/>
+      <c r="G20" s="103"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="1:12" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="22" spans="1:12" ht="18.600000000000001" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="D22" s="61" t="s">
+      <c r="D22" s="69" t="s">
         <v>60</v>
       </c>
-      <c r="E22" s="62"/>
-      <c r="F22" s="63"/>
+      <c r="E22" s="70"/>
+      <c r="F22" s="71"/>
       <c r="G22" s="34" t="s">
         <v>91</v>
       </c>
     </row>
     <row r="24" spans="1:12" x14ac:dyDescent="0.3">
-      <c r="A24" s="59" t="s">
+      <c r="A24" s="67" t="s">
         <v>132</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="60"/>
-      <c r="D24" s="60"/>
-      <c r="E24" s="60"/>
-      <c r="F24" s="60"/>
-      <c r="G24" s="60"/>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
-      <c r="J24" s="60"/>
-      <c r="K24" s="60"/>
-      <c r="L24" s="60"/>
-    </row>
-    <row r="27" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="27" t="s">
+      <c r="B24" s="68"/>
+      <c r="C24" s="68"/>
+      <c r="D24" s="68"/>
+      <c r="E24" s="68"/>
+      <c r="F24" s="68"/>
+      <c r="G24" s="68"/>
+      <c r="H24" s="68"/>
+      <c r="I24" s="68"/>
+      <c r="J24" s="68"/>
+      <c r="K24" s="68"/>
+      <c r="L24" s="68"/>
+    </row>
+    <row r="27" spans="1:12" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="59" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="28" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="27" t="s">
+    <row r="28" spans="1:12" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="59" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="29" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A29" s="27" t="s">
+    <row r="29" spans="1:12" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A29" s="59" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A30" s="27" t="s">
+    <row r="30" spans="1:12" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A30" s="59" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="31" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="27" t="s">
+    <row r="31" spans="1:12" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="59" t="s">
         <v>59</v>
       </c>
     </row>
-    <row r="32" spans="1:12" ht="18" x14ac:dyDescent="0.35">
-      <c r="A32" s="28" t="s">
+    <row r="32" spans="1:12" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A32" s="61" t="s">
         <v>28</v>
       </c>
     </row>
-    <row r="33" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="27" t="s">
+    <row r="33" spans="1:21" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="59" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="34" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A34" s="27" t="s">
+    <row r="34" spans="1:21" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A34" s="59" t="s">
         <v>93</v>
       </c>
-      <c r="U34" s="32"/>
+      <c r="U34" s="62"/>
     </row>
     <row r="35" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
@@ -2493,8 +2511,8 @@
       </c>
       <c r="U35" s="32"/>
     </row>
-    <row r="36" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A36" s="27" t="s">
+    <row r="36" spans="1:21" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A36" s="59" t="s">
         <v>92</v>
       </c>
     </row>
@@ -2506,13 +2524,13 @@
         <v>13</v>
       </c>
     </row>
-    <row r="39" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A39" s="27" t="s">
+    <row r="39" spans="1:21" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A39" s="59" t="s">
         <v>26</v>
       </c>
     </row>
-    <row r="40" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A40" s="27" t="s">
+    <row r="40" spans="1:21" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A40" s="59" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2521,13 +2539,13 @@
         <v>64</v>
       </c>
     </row>
-    <row r="42" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A42" s="27" t="s">
+    <row r="42" spans="1:21" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A42" s="59" t="s">
         <v>65</v>
       </c>
     </row>
-    <row r="43" spans="1:21" ht="18" x14ac:dyDescent="0.35">
-      <c r="A43" s="27" t="s">
+    <row r="43" spans="1:21" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A43" s="59" t="s">
         <v>66</v>
       </c>
     </row>
@@ -2637,7 +2655,7 @@
   <dimension ref="A2:N39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="K10" sqref="K10"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2842,8 +2860,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{35BB1B9A-ABD5-42D5-B458-7625BBCE2BA3}">
   <dimension ref="A2:R40"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C33" sqref="A33:XFD33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.44140625" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -3058,77 +3076,77 @@
       <c r="I15" s="27"/>
       <c r="J15" s="27"/>
     </row>
-    <row r="16" spans="1:10" ht="18" x14ac:dyDescent="0.35">
-      <c r="A16" s="27"/>
-      <c r="B16" s="45" t="s">
+    <row r="16" spans="1:10" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A16" s="59"/>
+      <c r="B16" s="63" t="s">
         <v>137</v>
       </c>
-      <c r="C16" s="27" t="s">
+      <c r="C16" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="D16" s="27"/>
-      <c r="E16" s="27"/>
-      <c r="F16" s="27"/>
-      <c r="G16" s="27"/>
-      <c r="H16" s="27"/>
-      <c r="I16" s="27"/>
-      <c r="J16" s="27"/>
-    </row>
-    <row r="17" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A17" s="27"/>
-      <c r="B17" s="44"/>
-      <c r="C17" s="27" t="s">
+      <c r="D16" s="59"/>
+      <c r="E16" s="59"/>
+      <c r="F16" s="59"/>
+      <c r="G16" s="59"/>
+      <c r="H16" s="59"/>
+      <c r="I16" s="59"/>
+      <c r="J16" s="59"/>
+    </row>
+    <row r="17" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A17" s="59"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="59" t="s">
         <v>118</v>
       </c>
-      <c r="D17" s="27"/>
-      <c r="E17" s="27"/>
-      <c r="F17" s="27"/>
-      <c r="G17" s="27"/>
-      <c r="H17" s="27"/>
-      <c r="I17" s="27"/>
-      <c r="J17" s="27"/>
-    </row>
-    <row r="18" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A18" s="27"/>
-      <c r="B18" s="44"/>
-      <c r="C18" s="27" t="s">
+      <c r="D17" s="59"/>
+      <c r="E17" s="59"/>
+      <c r="F17" s="59"/>
+      <c r="G17" s="59"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="59"/>
+      <c r="J17" s="59"/>
+    </row>
+    <row r="18" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A18" s="59"/>
+      <c r="B18" s="64"/>
+      <c r="C18" s="59" t="s">
         <v>119</v>
       </c>
-      <c r="D18" s="27"/>
-      <c r="E18" s="27"/>
-      <c r="F18" s="27"/>
-      <c r="G18" s="27"/>
-      <c r="H18" s="27"/>
-      <c r="I18" s="27"/>
-      <c r="J18" s="27"/>
-    </row>
-    <row r="19" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A19" s="27"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="27" t="s">
+      <c r="D18" s="59"/>
+      <c r="E18" s="59"/>
+      <c r="F18" s="59"/>
+      <c r="G18" s="59"/>
+      <c r="H18" s="59"/>
+      <c r="I18" s="59"/>
+      <c r="J18" s="59"/>
+    </row>
+    <row r="19" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A19" s="59"/>
+      <c r="B19" s="64"/>
+      <c r="C19" s="59" t="s">
         <v>120</v>
       </c>
-      <c r="D19" s="27"/>
-      <c r="E19" s="27"/>
-      <c r="F19" s="27"/>
-      <c r="G19" s="27"/>
-      <c r="H19" s="27"/>
-      <c r="I19" s="27"/>
-      <c r="J19" s="27"/>
-    </row>
-    <row r="20" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A20" s="27"/>
-      <c r="B20" s="44"/>
-      <c r="C20" s="27" t="s">
+      <c r="D19" s="59"/>
+      <c r="E19" s="59"/>
+      <c r="F19" s="59"/>
+      <c r="G19" s="59"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="59"/>
+      <c r="J19" s="59"/>
+    </row>
+    <row r="20" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A20" s="59"/>
+      <c r="B20" s="64"/>
+      <c r="C20" s="59" t="s">
         <v>121</v>
       </c>
-      <c r="D20" s="27"/>
-      <c r="E20" s="27"/>
-      <c r="F20" s="27"/>
-      <c r="G20" s="27"/>
-      <c r="H20" s="27"/>
-      <c r="I20" s="27"/>
-      <c r="J20" s="27"/>
+      <c r="D20" s="59"/>
+      <c r="E20" s="59"/>
+      <c r="F20" s="59"/>
+      <c r="G20" s="59"/>
+      <c r="H20" s="59"/>
+      <c r="I20" s="59"/>
+      <c r="J20" s="59"/>
     </row>
     <row r="21" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A21" s="27"/>
@@ -3158,19 +3176,19 @@
       <c r="I22" s="27"/>
       <c r="J22" s="27"/>
     </row>
-    <row r="23" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A23" s="27"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="27" t="s">
+    <row r="23" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A23" s="59"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="59" t="s">
         <v>127</v>
       </c>
-      <c r="D23" s="27"/>
-      <c r="E23" s="27"/>
-      <c r="F23" s="27"/>
-      <c r="G23" s="27"/>
-      <c r="H23" s="27"/>
-      <c r="I23" s="27"/>
-      <c r="J23" s="27"/>
+      <c r="D23" s="59"/>
+      <c r="E23" s="59"/>
+      <c r="F23" s="59"/>
+      <c r="G23" s="59"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="59"/>
+      <c r="J23" s="59"/>
     </row>
     <row r="24" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A24" s="27"/>
@@ -3184,61 +3202,61 @@
       <c r="I24" s="27"/>
       <c r="J24" s="27"/>
     </row>
-    <row r="25" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A25" s="27"/>
-      <c r="B25" s="44"/>
-      <c r="C25" s="27" t="s">
+    <row r="25" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A25" s="59"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="59" t="s">
         <v>122</v>
       </c>
-      <c r="D25" s="27"/>
-      <c r="E25" s="27"/>
-      <c r="F25" s="27"/>
-      <c r="G25" s="27"/>
-      <c r="H25" s="27"/>
-      <c r="I25" s="27"/>
-      <c r="J25" s="27"/>
-    </row>
-    <row r="26" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A26" s="27"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="27" t="s">
+      <c r="D25" s="59"/>
+      <c r="E25" s="59"/>
+      <c r="F25" s="59"/>
+      <c r="G25" s="59"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="59"/>
+      <c r="J25" s="59"/>
+    </row>
+    <row r="26" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A26" s="59"/>
+      <c r="B26" s="64"/>
+      <c r="C26" s="59" t="s">
         <v>128</v>
       </c>
-      <c r="D26" s="27"/>
-      <c r="E26" s="27"/>
-      <c r="F26" s="27"/>
-      <c r="G26" s="27"/>
-      <c r="H26" s="27"/>
-      <c r="I26" s="27"/>
-      <c r="J26" s="27"/>
-    </row>
-    <row r="27" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A27" s="27"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="27" t="s">
+      <c r="D26" s="59"/>
+      <c r="E26" s="59"/>
+      <c r="F26" s="59"/>
+      <c r="G26" s="59"/>
+      <c r="H26" s="59"/>
+      <c r="I26" s="59"/>
+      <c r="J26" s="59"/>
+    </row>
+    <row r="27" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A27" s="59"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="59" t="s">
         <v>129</v>
       </c>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-    </row>
-    <row r="28" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A28" s="27"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="27" t="s">
+      <c r="D27" s="59"/>
+      <c r="E27" s="59"/>
+      <c r="F27" s="59"/>
+      <c r="G27" s="59"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="59"/>
+      <c r="J27" s="59"/>
+    </row>
+    <row r="28" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A28" s="59"/>
+      <c r="B28" s="64"/>
+      <c r="C28" s="59" t="s">
         <v>124</v>
       </c>
-      <c r="D28" s="27"/>
-      <c r="E28" s="27"/>
-      <c r="F28" s="27"/>
-      <c r="G28" s="27"/>
-      <c r="H28" s="27"/>
-      <c r="I28" s="27"/>
-      <c r="J28" s="27"/>
+      <c r="D28" s="59"/>
+      <c r="E28" s="59"/>
+      <c r="F28" s="59"/>
+      <c r="G28" s="59"/>
+      <c r="H28" s="59"/>
+      <c r="I28" s="59"/>
+      <c r="J28" s="59"/>
     </row>
     <row r="29" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A29" s="27"/>
@@ -3274,18 +3292,18 @@
       <c r="G30" s="10"/>
       <c r="H30" s="10"/>
     </row>
-    <row r="31" spans="1:11" ht="18" x14ac:dyDescent="0.35">
-      <c r="A31" s="27"/>
-      <c r="B31" s="44"/>
-      <c r="C31" s="51" t="s">
+    <row r="31" spans="1:11" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A31" s="59"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65" t="s">
         <v>125</v>
       </c>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
+      <c r="D31" s="59"/>
+      <c r="E31" s="59"/>
+      <c r="F31" s="59"/>
+      <c r="G31" s="59"/>
+      <c r="H31" s="59"/>
+      <c r="I31" s="59"/>
     </row>
     <row r="32" spans="1:11" ht="18" x14ac:dyDescent="0.35">
       <c r="A32" s="27"/>
@@ -3294,14 +3312,14 @@
       <c r="G32" s="10"/>
       <c r="H32" s="10"/>
     </row>
-    <row r="33" spans="1:18" ht="18" x14ac:dyDescent="0.35">
-      <c r="A33" s="27"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="51" t="s">
+    <row r="33" spans="1:18" s="60" customFormat="1" ht="18" x14ac:dyDescent="0.35">
+      <c r="A33" s="59"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65" t="s">
         <v>135</v>
       </c>
-      <c r="G33" s="10"/>
-      <c r="H33" s="10"/>
+      <c r="G33" s="66"/>
+      <c r="H33" s="66"/>
     </row>
     <row r="34" spans="1:18" ht="18" x14ac:dyDescent="0.35">
       <c r="A34" s="27"/>
